--- a/data/trans_bre/P2C_R1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R1-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-10.36209037349596</v>
+        <v>-10.36209037349597</v>
       </c>
       <c r="G4" s="6" t="inlineStr"/>
       <c r="H4" s="6" t="inlineStr"/>
@@ -657,7 +657,7 @@
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>-37.76091380875692</v>
+        <v>-35.6684003461713</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -675,7 +675,7 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>3.366971638990841</v>
+        <v>3.406882386288463</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.7772690314046695</v>
+        <v>-0.7772690314046694</v>
       </c>
     </row>
     <row r="8">
@@ -726,16 +726,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.091529212393751</v>
+        <v>-2.308314231463001</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.496987078303024</v>
+        <v>-1.378039839299435</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.353793175842878</v>
+        <v>-1.955731158082805</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-21.8973377649707</v>
+        <v>-24.10189142995031</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
@@ -750,16 +750,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7666454864563146</v>
+        <v>0.7843568719620263</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.787902399896053</v>
+        <v>1.674160691335064</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.529392641875768</v>
+        <v>2.480310676003648</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
@@ -810,25 +810,25 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7486546440618184</v>
+        <v>-0.6515857741548174</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.749179916777826</v>
+        <v>-1.893853678152556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8200902637976407</v>
+        <v>-0.5536551564336472</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.685974990511164</v>
+        <v>-3.428541913512904</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6174747155793039</v>
+        <v>-0.5942493136356706</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7698676933877753</v>
+        <v>-0.8338642519203426</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5875385488045565</v>
+        <v>-0.5294916507027266</v>
       </c>
       <c r="J11" s="6" t="inlineStr"/>
     </row>
@@ -840,25 +840,25 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.071380553701925</v>
+        <v>2.117224641803959</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.382146403488258</v>
+        <v>1.237522857238978</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.269414090166006</v>
+        <v>2.402885303324003</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.536254185918482</v>
+        <v>1.529070187302502</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>6.360807592159593</v>
+        <v>5.821228583947534</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.340714148911057</v>
+        <v>2.313586990803493</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>8.376565383697296</v>
+        <v>9.18873003676403</v>
       </c>
       <c r="J12" s="6" t="inlineStr"/>
     </row>
@@ -883,7 +883,7 @@
         <v>-0.8237959364229908</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.465349996110593</v>
+        <v>-1.465349996110596</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>2.710727205233649</v>
@@ -895,7 +895,7 @@
         <v>-0.3786958287360965</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1615795802746095</v>
+        <v>-0.1615795802746098</v>
       </c>
     </row>
     <row r="14">
@@ -906,26 +906,24 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.312465873737642</v>
+        <v>-0.3102922378040139</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.892422459842533</v>
+        <v>-0.9229069114126538</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.798919625978344</v>
+        <v>-2.955156552320032</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-9.325068900344954</v>
+        <v>-8.868052761153628</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="n">
-        <v>-0.8447928171794349</v>
-      </c>
+      <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.8759025166137582</v>
+        <v>-0.8761709489733522</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6555457639551349</v>
+        <v>-0.6519212906498763</v>
       </c>
     </row>
     <row r="15">
@@ -936,24 +934,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.759406909421118</v>
+        <v>3.660042695106889</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.300013705574234</v>
+        <v>2.49925691540657</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.158992954112851</v>
+        <v>1.224248913972348</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.581656041142868</v>
+        <v>4.867913817618919</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>1.634871426613758</v>
+        <v>2.264899317140056</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.023443435695505</v>
+        <v>0.9899106200766082</v>
       </c>
     </row>
     <row r="16">
@@ -977,7 +975,7 @@
         <v>-1.195088793949651</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-7.542100947175605</v>
+        <v>-7.542100947175602</v>
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
@@ -993,7 +991,7 @@
         <v>-0.7162893577492814</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.4364418749353517</v>
+        <v>-0.4364418749353516</v>
       </c>
     </row>
     <row r="17">
@@ -1007,19 +1005,19 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.3196592378574</v>
+        <v>0.9351098929330223</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.824644394796509</v>
+        <v>-5.028900528016475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-18.11691925514265</v>
+        <v>-18.21261514438356</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="inlineStr"/>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>-0.743297511536501</v>
+        <v>-0.7465481318717848</v>
       </c>
     </row>
     <row r="18">
@@ -1030,22 +1028,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.481135293620746</v>
+        <v>3.061382706345542</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.184075229056047</v>
+        <v>5.837827212161096</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4793459771234601</v>
+        <v>0.4774775892664113</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.132642384280654</v>
+        <v>1.256540677694473</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>0.3208732184425617</v>
+        <v>0.1546838022204594</v>
       </c>
     </row>
     <row r="19">
@@ -1069,7 +1067,7 @@
         <v>0.8890668991590985</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.397659857209507</v>
+        <v>1.397659857209513</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.5708908983841032</v>
@@ -1081,7 +1079,7 @@
         <v>2.808442933904602</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.06197874680458325</v>
+        <v>0.06197874680458349</v>
       </c>
     </row>
     <row r="20">
@@ -1092,22 +1090,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.164112447225196</v>
+        <v>-2.143425290839219</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.751872498097062</v>
+        <v>-1.750854404478561</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.3216507675437179</v>
+        <v>-0.07025701011490562</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-10.865040566811</v>
+        <v>-11.85407404923084</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.3610373179771151</v>
+        <v>-0.3978894989210759</v>
       </c>
     </row>
     <row r="21">
@@ -1118,22 +1116,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3105351539114615</v>
+        <v>0.5598937351373851</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3630079775842469</v>
+        <v>0.4905743066639854</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.361406209013438</v>
+        <v>2.435931616911502</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13.53858809426143</v>
+        <v>12.07074611555444</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>0.9672503848033545</v>
+        <v>0.8114557844433968</v>
       </c>
     </row>
     <row r="22">
@@ -1169,7 +1167,7 @@
         <v>0.5309992801259794</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.008167519634219926</v>
+        <v>0.008167519634219925</v>
       </c>
     </row>
     <row r="23">
@@ -1180,22 +1178,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.223130614321983</v>
+        <v>-1.180397430847546</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2793856906061849</v>
+        <v>-0.4011177019379478</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.9512697531876964</v>
+        <v>-0.9469638065080251</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-9.299132802449247</v>
+        <v>-10.56529903754246</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>-0.176062568621686</v>
+        <v>-0.2025723958175757</v>
       </c>
     </row>
     <row r="24">
@@ -1206,22 +1204,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6795636336121352</v>
+        <v>0.6787164774584338</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.773182955054929</v>
+        <v>2.542404602301627</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.045388554243606</v>
+        <v>2.170400506103968</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.705893975466969</v>
+        <v>9.607486099942737</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="inlineStr"/>
       <c r="I24" s="6" t="inlineStr"/>
       <c r="J24" s="6" t="n">
-        <v>0.2455193104501875</v>
+        <v>0.2435135763938442</v>
       </c>
     </row>
     <row r="25">
@@ -1268,28 +1266,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.3177399080303786</v>
+        <v>-0.3576163865595522</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.2682037400090545</v>
+        <v>-0.1889479361557511</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.6052494393425474</v>
+        <v>-0.6160693664886299</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.452701505202136</v>
+        <v>-2.058811205630736</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4458216131284741</v>
+        <v>-0.4462830102525703</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2564959165795494</v>
+        <v>-0.2530947686910368</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4772092361088101</v>
+        <v>-0.4932397922633496</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1357213584861423</v>
+        <v>-0.1166203728620241</v>
       </c>
     </row>
     <row r="27">
@@ -1300,28 +1298,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7224546632735103</v>
+        <v>0.7335460444323803</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9629389726239732</v>
+        <v>1.000911581641821</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6307906269711604</v>
+        <v>0.6008280183293332</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.061794577759207</v>
+        <v>4.967872347147619</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.285466370977008</v>
+        <v>2.426197308645985</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.777648069251282</v>
+        <v>2.050893426869929</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.00296915515465</v>
+        <v>0.9477068567092483</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4014059449373492</v>
+        <v>0.3906104405583431</v>
       </c>
     </row>
     <row r="28">
